--- a/DomainList.xlsx
+++ b/DomainList.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="sukenhay.com_template" sheetId="2" r:id="rId2"/>
+    <sheet name="kichsaigon.com.vn_template" sheetId="3" r:id="rId3"/>
+    <sheet name="ticbox.vn_template" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>sukenhay.com</t>
   </si>
@@ -78,16 +80,35 @@
   </si>
   <si>
     <t>Phong</t>
+  </si>
+  <si>
+    <t>P.I.C</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Cuong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,10 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,6 +179,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="5124450"/>
+          <a:ext cx="5486400" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Cuong-san will find more domains relate to  "Phuot" event</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,154 +565,219 @@
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -610,7 +786,35 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DomainList.xlsx
+++ b/DomainList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>sukenhay.com</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>Cuong</t>
+  </si>
+  <si>
+    <t>phuot.vn</t>
+  </si>
+  <si>
+    <t>phuot.net</t>
+  </si>
+  <si>
+    <t>cungphuot.vn</t>
+  </si>
+  <si>
+    <t>dulichbui.org</t>
+  </si>
+  <si>
+    <t>hoidulich.com</t>
+  </si>
+  <si>
+    <t>kichidecaf.com</t>
+  </si>
+  <si>
+    <t>baynhe.com</t>
   </si>
 </sst>
 </file>
@@ -179,92 +200,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2066925" y="5124450"/>
-          <a:ext cx="5486400" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Note:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Cuong-san will find more domains relate to  "Phuot" event</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -749,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,13 +706,89 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
